--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P07_trail15 Features.xlsx
@@ -5229,7 +5229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5240,29 +5240,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5283,115 +5281,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5408,72 +5396,66 @@
         <v>5.2432593845225e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.2070917643472421</v>
+        <v>2.842587254054017e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4395941824948411</v>
+        <v>1.762660875007791e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.842587254054017e-07</v>
+        <v>0.09042951717538761</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.762660875007791e-06</v>
+        <v>0.1801817685641414</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09042951717538761</v>
+        <v>0.04057671674947352</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1801817685641414</v>
+        <v>1.87572226568787</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04057671674947352</v>
+        <v>1.979276414528279</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.856103311785991</v>
+        <v>4.170235469243508</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.979276414528279</v>
+        <v>3.719749295300026e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.170235469243508</v>
+        <v>360207004.5500975</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.719749295300026e-16</v>
+        <v>3.302879496141409e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>360207004.5500975</v>
+        <v>48.26340716865595</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.302879496141409e-07</v>
+        <v>0.00013444287969939</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>48.26340716865595</v>
+        <v>8.845781451119342</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.00013444287969939</v>
+        <v>1.229487579421493</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.845781451119342</v>
+        <v>0.01051986621450562</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.229487579421493</v>
+        <v>2.995048940463849</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01051986621450562</v>
+        <v>0.9555943236109986</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.995048940463849</v>
+        <v>1.581189679666816</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9555943236109986</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.581189679666816</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2627577265159874</v>
       </c>
     </row>
@@ -5488,72 +5470,66 @@
         <v>5.144881737431278e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1458293164274433</v>
+        <v>2.613513387364801e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.7960330217019909</v>
+        <v>1.767179832196545e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.613513387364801e-07</v>
+        <v>0.08472946209073919</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.767179832196545e-06</v>
+        <v>0.160280527810133</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08472946209073919</v>
+        <v>0.03282266925259784</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.160280527810133</v>
+        <v>1.864667711312638</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03282266925259784</v>
+        <v>1.825484092295185</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.839610308129293</v>
+        <v>4.524375245201437</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.825484092295185</v>
+        <v>4.991490982326909e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.524375245201437</v>
+        <v>264633209.3245144</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.991490982326909e-16</v>
+        <v>4.485249799849395e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>264633209.3245144</v>
+        <v>34.95577846211246</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.485249799849395e-07</v>
+        <v>0.0001620716559111102</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>34.95577846211246</v>
+        <v>8.566131514443777</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001620716559111102</v>
+        <v>1.436185750752775</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.566131514443777</v>
+        <v>0.01189259268897768</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.436185750752775</v>
+        <v>2.962126876780668</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01189259268897768</v>
+        <v>0.9532004670220338</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.962126876780668</v>
+        <v>1.563952654904739</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9532004670220338</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.563952654904739</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2168695204968979</v>
       </c>
     </row>
@@ -5568,72 +5544,66 @@
         <v>5.269690207188266e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4131603341156101</v>
+        <v>2.577130390047068e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.5129580354705192</v>
+        <v>1.771479201880955e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.577130390047068e-07</v>
+        <v>0.08157035267343987</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.771479201880955e-06</v>
+        <v>0.1528495467690213</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.08157035267343987</v>
+        <v>0.02997624695274759</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1528495467690213</v>
+        <v>1.857823791751748</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02997624695274759</v>
+        <v>1.680145922526758</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.823122502803629</v>
+        <v>4.796232356745393</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.680145922526758</v>
+        <v>7.871550887085686e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.796232356745393</v>
+        <v>170396422.3320709</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.871550887085686e-16</v>
+        <v>6.946733593570739e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>170396422.3320709</v>
+        <v>22.85500135665247</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.946733593570739e-07</v>
+        <v>0.0001944160847631793</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>22.85500135665247</v>
+        <v>9.483440794051827</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001944160847631793</v>
+        <v>1.460173068204434</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.483440794051827</v>
+        <v>0.01748493681642954</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.460173068204434</v>
+        <v>2.783539278547299</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01748493681642954</v>
+        <v>0.9530880910391574</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.783539278547299</v>
+        <v>1.605716234336058</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9530880910391574</v>
+        <v>12</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.605716234336058</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1842610038757643</v>
       </c>
     </row>
@@ -5648,72 +5618,66 @@
         <v>5.600298667843552e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6902884662718698</v>
+        <v>2.731998256949637e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.2100103630590024</v>
+        <v>1.775876118915137e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.731998256949637e-07</v>
+        <v>0.08136927821338337</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.775876118915137e-06</v>
+        <v>0.1582697826227698</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.08136927821338337</v>
+        <v>0.03162151267926538</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1582697826227698</v>
+        <v>1.837967780748331</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03162151267926538</v>
+        <v>1.569770506122812</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.794678472971503</v>
+        <v>4.700182980882868</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.569770506122812</v>
+        <v>1.418944449818584e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.700182980882868</v>
+        <v>97468686.93880312</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.418944449818584e-15</v>
+        <v>1.217185146956492e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>97468686.93880312</v>
+        <v>13.48017792596755</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.217185146956492e-06</v>
+        <v>0.000185548683856563</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>13.48017792596755</v>
+        <v>10.71006672821195</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000185548683856563</v>
+        <v>1.258931314933918</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.71006672821195</v>
+        <v>0.02128345999690716</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.258931314933918</v>
+        <v>2.758553714237505</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02128345999690716</v>
+        <v>0.9512770710449714</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.758553714237505</v>
+        <v>1.629157139155676</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9512770710449714</v>
+        <v>12</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.629157139155676</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1811353854200259</v>
       </c>
     </row>
@@ -5728,72 +5692,66 @@
         <v>6.166246000143446e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.037101267724383</v>
+        <v>3.123723222702735e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.369297488523014</v>
+        <v>1.780702184869082e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.123723222702735e-07</v>
+        <v>0.08376716923939555</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.780702184869082e-06</v>
+        <v>0.1742594914740191</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.08376716923939555</v>
+        <v>0.03731584403316598</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1742594914740191</v>
+        <v>1.823125879080054</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03731584403316598</v>
+        <v>1.512828442138545</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.771447666869988</v>
+        <v>4.14750534136251</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.512828442138545</v>
+        <v>2.555484034745656e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.14750534136251</v>
+        <v>54358324.89872653</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.555484034745656e-15</v>
+        <v>2.177573823034484e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>54358324.89872653</v>
+        <v>7.55101446537808</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.177573823034484e-06</v>
+        <v>0.0001722731139174799</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7.55101446537808</v>
+        <v>11.87545337117585</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001722731139174799</v>
+        <v>1.074976216937595</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.87545337117585</v>
+        <v>0.0242950558272049</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.074976216937595</v>
+        <v>2.703264498199386</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0242950558272049</v>
+        <v>0.9520399892382848</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.703264498199386</v>
+        <v>1.657233465098984</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9520399892382848</v>
+        <v>12</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.657233465098984</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1857112901215588</v>
       </c>
     </row>
@@ -5808,72 +5766,66 @@
         <v>7.033013685942125e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.459052271363079</v>
+        <v>3.821702088323992e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.956279857019625</v>
+        <v>1.786321027319187e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.821702088323992e-07</v>
+        <v>0.08729096097122979</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.786321027319187e-06</v>
+        <v>0.1928354423943541</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.08729096097122979</v>
+        <v>0.04472580779274218</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1928354423943541</v>
+        <v>1.817656372287175</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04472580779274218</v>
+        <v>1.527599088636034</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.762615788868414</v>
+        <v>3.617612564793421</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.527599088636034</v>
+        <v>3.358945623206442e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.617612564793421</v>
+        <v>42980536.87551113</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.358945623206442e-15</v>
+        <v>2.763638473793866e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>42980536.87551113</v>
+        <v>6.205069430115542</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.763638473793866e-06</v>
+        <v>0.0001829066915291488</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.205069430115542</v>
+        <v>12.51645114264994</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001829066915291488</v>
+        <v>1.018952610763646</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.51645114264994</v>
+        <v>0.02865444565516313</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.018952610763646</v>
+        <v>2.548502933123574</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02865444565516313</v>
+        <v>0.951781692862089</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.548502933123574</v>
+        <v>1.636624535780075</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.951781692862089</v>
+        <v>12</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.636624535780075</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1739042820802676</v>
       </c>
     </row>
@@ -5888,72 +5840,66 @@
         <v>8.266036333508072e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.891017449529719</v>
+        <v>4.687346005984311e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4.681165387119459</v>
+        <v>1.793087466300197e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.687346005984311e-07</v>
+        <v>0.09031783741807016</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.793087466300197e-06</v>
+        <v>0.2062320536331099</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.09031783741807016</v>
+        <v>0.05060183916457384</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2062320536331099</v>
+        <v>1.799524919525148</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.05060183916457384</v>
+        <v>1.493115074406296</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.734249411056236</v>
+        <v>3.576552168352212</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.493115074406296</v>
+        <v>4.381728585643246e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.576552168352212</v>
+        <v>33135104.78768118</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.381728585643246e-15</v>
+        <v>3.573996997353726e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>33135104.78768118</v>
+        <v>4.810853916463732</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.573996997353726e-06</v>
+        <v>0.0002047196927861226</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>4.810853916463732</v>
+        <v>12.4474812342844</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002047196927861226</v>
+        <v>1.048239550727138</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.4474812342844</v>
+        <v>0.03171922602036661</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.048239550727138</v>
+        <v>2.403296527194704</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.03171922602036661</v>
+        <v>0.9491308795800305</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.403296527194704</v>
+        <v>1.661538483236641</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9491308795800305</v>
+        <v>12</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.661538483236641</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1537617313480369</v>
       </c>
     </row>
@@ -5968,72 +5914,66 @@
         <v>9.931405381634917e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.262208825568684</v>
+        <v>5.748906591788058e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>6.190385777898731</v>
+        <v>1.801369699765252e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.748906591788058e-07</v>
+        <v>0.09234426499351861</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.801369699765252e-06</v>
+        <v>0.2137286147790046</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.09234426499351861</v>
+        <v>0.05412142237086496</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2137286147790046</v>
+        <v>1.762196014984335</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05412142237086496</v>
+        <v>1.495961770129624</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.687366876158195</v>
+        <v>3.332223813940582</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.495961770129624</v>
+        <v>5.265632621785127e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.332223813940582</v>
+        <v>27730435.07612678</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.265632621785127e-15</v>
+        <v>4.162615252437832e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>27730435.07612678</v>
+        <v>4.049150531998035</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.162615252437832e-06</v>
+        <v>0.0002192153391371951</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>4.049150531998035</v>
+        <v>12.48091434791156</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002192153391371951</v>
+        <v>1.063994149513119</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.48091434791156</v>
+        <v>0.0341478798996494</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.063994149513119</v>
+        <v>2.308574629600187</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0341478798996494</v>
+        <v>0.9476748831045227</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.308574629600187</v>
+        <v>1.691242948137643</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9476748831045227</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.691242948137643</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1442453371263578</v>
       </c>
     </row>
@@ -6048,72 +5988,66 @@
         <v>1.206776592763562e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.523352692697176</v>
+        <v>6.935183312375658e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>7.174096655535976</v>
+        <v>1.811499876493783e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.935183312375658e-07</v>
+        <v>0.09214687216129595</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.811499876493783e-06</v>
+        <v>0.2105496913832793</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.09214687216129595</v>
+        <v>0.05275947950514923</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2105496913832793</v>
+        <v>1.660744591197822</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05275947950514923</v>
+        <v>1.526845614786281</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.578098373204789</v>
+        <v>3.654178039465226</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.526845614786281</v>
+        <v>5.395016604365052e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.654178039465226</v>
+        <v>29151684.80305172</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.395016604365052e-15</v>
+        <v>3.721952829781434e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>29151684.80305172</v>
+        <v>4.584796932124269</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.721952829781434e-06</v>
+        <v>0.0002345731463120694</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4.584796932124269</v>
+        <v>12.10943691789671</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002345731463120694</v>
+        <v>1.178736806305111</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>12.10943691789671</v>
+        <v>0.03439744551160497</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.178736806305111</v>
+        <v>2.392256794837319</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.03439744551160497</v>
+        <v>0.9426346371948024</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.392256794837319</v>
+        <v>1.759472906583902</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9426346371948024</v>
+        <v>13</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.759472906583902</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1377725205120284</v>
       </c>
     </row>
@@ -6128,72 +6062,66 @@
         <v>1.460412815511087e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.64329598633427</v>
+        <v>8.075530453001281e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>7.380650622062181</v>
+        <v>1.823580119723555e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.075530453001281e-07</v>
+        <v>0.08913224574999086</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.823580119723555e-06</v>
+        <v>0.1956736485033935</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.08913224574999086</v>
+        <v>0.04619944299765941</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1956736485033935</v>
+        <v>1.582928250358155</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04619944299765941</v>
+        <v>1.436293393360776</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.497024018370582</v>
+        <v>4.566219306655664</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.436293393360776</v>
+        <v>8.348287196225516e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.566219306655664</v>
+        <v>19493239.81276953</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.348287196225516e-15</v>
+        <v>5.334884482836738e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>19493239.81276953</v>
+        <v>3.172235584487065</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.334884482836738e-06</v>
+        <v>0.0002796210572577547</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>3.172235584487065</v>
+        <v>10.70701966484364</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002796210572577547</v>
+        <v>1.574144384263309</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.70701966484364</v>
+        <v>0.03205583353061285</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.574144384263309</v>
+        <v>2.433927556743565</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.03205583353061285</v>
+        <v>0.9365491992335059</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.433927556743565</v>
+        <v>1.84246048250536</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9365491992335059</v>
+        <v>13</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.84246048250536</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.120051991849877</v>
       </c>
     </row>
@@ -6208,72 +6136,66 @@
         <v>1.736562155458343e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2.63343570508117</v>
+        <v>9.017846530192885e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6.876266018341985</v>
+        <v>1.837418592817724e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>9.017846530192885e-07</v>
+        <v>0.08408222428096035</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.837418592817724e-06</v>
+        <v>0.1747963626782189</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.08408222428096035</v>
+        <v>0.03761031038976512</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1747963626782189</v>
+        <v>1.568775521605015</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03761031038976512</v>
+        <v>1.406886215939172</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.485805094464168</v>
+        <v>4.258741023982129</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.406886215939172</v>
+        <v>1.453434000793892e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.258741023982129</v>
+        <v>11468983.27970158</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.453434000793892e-14</v>
+        <v>8.93482080086538e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>11468983.27970158</v>
+        <v>1.911811874770668</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.93482080086538e-06</v>
+        <v>0.0002545579826208459</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1.911811874770668</v>
+        <v>10.52039010279326</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002545579826208459</v>
+        <v>1.562001431094548</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.52039010279326</v>
+        <v>0.02817412315011335</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.562001431094548</v>
+        <v>2.522110039011853</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02817412315011335</v>
+        <v>0.9361268757063487</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.522110039011853</v>
+        <v>1.85144221257987</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9361268757063487</v>
+        <v>12</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.85144221257987</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1149764240411797</v>
       </c>
     </row>
@@ -6288,72 +6210,66 @@
         <v>2.015609370699345e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2.535200634290082</v>
+        <v>9.704687216300892e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>5.961441139586775</v>
+        <v>1.85263373283167e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9.704687216300892e-07</v>
+        <v>0.07825339814541481</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.85263373283167e-06</v>
+        <v>0.1541104188438569</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.07825339814541481</v>
+        <v>0.02986891994432158</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1541104188438569</v>
+        <v>1.527257508531415</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02986891994432158</v>
+        <v>1.410684337643424</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.44433756033794</v>
+        <v>3.715582466474258</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.410684337643424</v>
+        <v>1.90943099690682e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.715582466474258</v>
+        <v>9036101.39621765</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.90943099690682e-14</v>
+        <v>1.114332183502109e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>9036101.39621765</v>
+        <v>1.559071955809622</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.114332183502109e-05</v>
+        <v>0.000209098607989063</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1.559071955809622</v>
+        <v>11.26869444433067</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000209098607989063</v>
+        <v>1.204018260761814</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.26869444433067</v>
+        <v>0.02655206775131768</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.204018260761814</v>
+        <v>2.47824581740082</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02655206775131768</v>
+        <v>0.9341257243282528</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.47824581740082</v>
+        <v>1.855629143053004</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9341257243282528</v>
+        <v>12</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.855629143053004</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1222580736593985</v>
       </c>
     </row>
@@ -6368,72 +6284,66 @@
         <v>2.285097977006787e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2.393856167892245</v>
+        <v>1.022334156545765e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4.941864944172625</v>
+        <v>1.868870951586062e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.022334156545765e-06</v>
+        <v>0.07296259645105152</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.868870951586062e-06</v>
+        <v>0.1370346951436034</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.07296259645105152</v>
+        <v>0.02409999848545073</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1370346951436034</v>
+        <v>1.50228741411232</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02409999848545073</v>
+        <v>1.401367859520033</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.415743672452982</v>
+        <v>3.590278976646661</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.401367859520033</v>
+        <v>2.045038017610535e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.590278976646661</v>
+        <v>8617430.136369152</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.045038017610535e-14</v>
+        <v>1.158837504038493e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>8617430.136369152</v>
+        <v>1.518647320990327</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.158837504038493e-05</v>
+        <v>0.000204187223493793</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1.518647320990327</v>
+        <v>12.16131810315389</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000204187223493793</v>
+        <v>1.03587200043244</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.16131810315389</v>
+        <v>0.03019881214949978</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.03587200043244</v>
+        <v>2.222443013945421</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03019881214949978</v>
+        <v>0.9337061291810589</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.222443013945421</v>
+        <v>1.869028315640103</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9337061291810589</v>
+        <v>12</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.869028315640103</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1306961644402128</v>
       </c>
     </row>
@@ -6448,72 +6358,66 @@
         <v>2.541413672615318e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2.240559341007985</v>
+        <v>1.064994837047348e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>3.991905158699783</v>
+        <v>1.885932440401999e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.064994837047348e-06</v>
+        <v>0.06856405464626558</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.885932440401999e-06</v>
+        <v>0.1235058308017098</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.06856405464626558</v>
+        <v>0.01995394335273471</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1235058308017098</v>
+        <v>1.490789854378596</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01995394335273471</v>
+        <v>1.396893943558754</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.404185757438794</v>
+        <v>3.504653719477648</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.396893943558754</v>
+        <v>2.146186955723547e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.504653719477648</v>
+        <v>8519735.443385934</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.146186955723547e-14</v>
+        <v>1.181317486062995e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>8519735.443385934</v>
+        <v>1.557828946342278</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.181317486062995e-05</v>
+        <v>0.0002036782089338623</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1.557828946342278</v>
+        <v>11.85209062545302</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002036782089338623</v>
+        <v>1.064328239348758</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.85209062545302</v>
+        <v>0.02861109599612804</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.064328239348758</v>
+        <v>2.21364591724317</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02861109599612804</v>
+        <v>0.9330832302700256</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.21364591724317</v>
+        <v>1.871545942100791</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9330832302700256</v>
+        <v>1</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.871545942100791</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1329384757155806</v>
       </c>
     </row>
@@ -6528,72 +6432,66 @@
         <v>2.782087431040878e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.08788902687766</v>
+        <v>1.092850772096192e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3.152929721353278</v>
+        <v>1.903639911184952e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.092850772096192e-06</v>
+        <v>0.06446397907771287</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.903639911184952e-06</v>
+        <v>0.1125495500485024</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.06446397907771287</v>
+        <v>0.01682326975574927</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1125495500485024</v>
+        <v>1.467177278200072</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01682326975574927</v>
+        <v>1.382978882139808</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.380863130380267</v>
+        <v>3.297309485947056</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.382978882139808</v>
+        <v>2.424590248125634e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.297309485947056</v>
+        <v>7627010.299365113</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.424590248125634e-14</v>
+        <v>1.305538899961235e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>7627010.299365113</v>
+        <v>1.410415330150407</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.305538899961235e-05</v>
+        <v>0.0001899755087627887</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1.410415330150407</v>
+        <v>10.40069340360581</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001899755087627887</v>
+        <v>1.177885776319612</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.40069340360581</v>
+        <v>0.02055049109694316</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.177885776319612</v>
+        <v>2.504118728318592</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02055049109694316</v>
+        <v>0.9264345487734857</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.504118728318592</v>
+        <v>1.878849138982173</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9264345487734857</v>
+        <v>1</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.878849138982173</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1332991336526858</v>
       </c>
     </row>
@@ -6608,72 +6506,66 @@
         <v>3.001689325170071e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.938376550058316</v>
+        <v>1.102694939603749e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.412576086450538</v>
+        <v>1.921702238525209e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.102694939603749e-06</v>
+        <v>0.06045210414950777</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.921702238525209e-06</v>
+        <v>0.1040026183782827</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.06045210414950777</v>
+        <v>0.01447146438288696</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1040026183782827</v>
+        <v>1.452885599079779</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01447146438288696</v>
+        <v>1.373153192698442</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.365283559664136</v>
+        <v>3.211351738609336</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.373153192698442</v>
+        <v>2.556124631769494e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.211351738609336</v>
+        <v>7350465.710522275</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.556124631769494e-14</v>
+        <v>1.355740161980761e-05</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>7350465.710522275</v>
+        <v>1.381057425619736</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.355740161980761e-05</v>
+        <v>0.0001855444836216511</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1.381057425619736</v>
+        <v>8.907256886615434</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001855444836216511</v>
+        <v>1.582378708771633</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.907256886615434</v>
+        <v>0.01472095557886918</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.582378708771633</v>
+        <v>2.771569957420372</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01472095557886918</v>
+        <v>0.9271154511970836</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.771569957420372</v>
+        <v>1.869309125589867</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9271154511970836</v>
+        <v>1</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.869309125589867</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1335024603381747</v>
       </c>
     </row>
@@ -7050,7 +6942,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.459488066143408</v>
+        <v>1.466043985313489</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.641528322182696</v>
@@ -7139,7 +7031,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.495297659295043</v>
+        <v>1.498591824232818</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.426810121354704</v>
@@ -7228,7 +7120,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.512360897370385</v>
+        <v>1.515267445032067</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.557697709643118</v>
@@ -7317,7 +7209,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.534673399337628</v>
+        <v>1.537088732562949</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.388225794112888</v>
@@ -7406,7 +7298,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.540732048879379</v>
+        <v>1.537787143051084</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.650709852115435</v>
@@ -7495,7 +7387,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.541756764503152</v>
+        <v>1.540877322347206</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.528208316096745</v>
@@ -7584,7 +7476,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.524277501554156</v>
+        <v>1.522271676199282</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.543249559258576</v>
@@ -7673,7 +7565,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.525075637009452</v>
+        <v>1.520144412594868</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.639617535764555</v>
@@ -7762,7 +7654,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.52402287623792</v>
+        <v>1.519208829621139</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.564241623535101</v>
@@ -7851,7 +7743,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.529138671090664</v>
+        <v>1.519667081737132</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.413041252411184</v>
@@ -7940,7 +7832,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.569641262016238</v>
+        <v>1.555885033264341</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.408286511195447</v>
@@ -8029,7 +7921,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.535854903587224</v>
+        <v>1.529814430040893</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.50358803973291</v>
@@ -8118,7 +8010,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.537745575500895</v>
+        <v>1.530205018064584</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.489841270351872</v>
@@ -8207,7 +8099,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.537972383146861</v>
+        <v>1.535503522864735</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.589862020642519</v>
@@ -8296,7 +8188,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565350689622105</v>
+        <v>1.547735660933547</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.53611299096308</v>
@@ -8385,7 +8277,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.534640214935443</v>
+        <v>1.531641635821742</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.609922997681986</v>
@@ -8474,7 +8366,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.513896398055157</v>
+        <v>1.510129598150218</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.64406202729717</v>
@@ -8563,7 +8455,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.488140545569172</v>
+        <v>1.476583118991124</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.589251548655027</v>
@@ -8652,7 +8544,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.476498492579805</v>
+        <v>1.465621060647455</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.49074643764876</v>
@@ -8741,7 +8633,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.428144731186037</v>
+        <v>1.423094418402968</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.522366078380528</v>
@@ -8830,7 +8722,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.409630290490455</v>
+        <v>1.398997662798613</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.570857232721168</v>
@@ -8919,7 +8811,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.419802588362436</v>
+        <v>1.402505159213897</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.437706227420439</v>
@@ -9008,7 +8900,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.404819154432988</v>
+        <v>1.388971718136305</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.496367106758791</v>
@@ -9097,7 +8989,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.400563317198939</v>
+        <v>1.380666332725825</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.570522399424067</v>
@@ -9186,7 +9078,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.369773230589898</v>
+        <v>1.356607599150652</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.516973035756069</v>
@@ -9275,7 +9167,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.359104265450909</v>
+        <v>1.345322476241653</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.538573794521955</v>
@@ -9364,7 +9256,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.374613079798787</v>
+        <v>1.358476966743915</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.505209306046406</v>
@@ -9453,7 +9345,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.373448270097027</v>
+        <v>1.35340041051991</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.451348585900548</v>
@@ -9542,7 +9434,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.363786911789166</v>
+        <v>1.342993787110263</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.513774762938509</v>
@@ -9631,7 +9523,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.377965838046657</v>
+        <v>1.354240546372898</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.137011213034852</v>
@@ -9720,7 +9612,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.39037917727427</v>
+        <v>1.36145563291989</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.496941832368614</v>
@@ -9809,7 +9701,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.405380128185964</v>
+        <v>1.370692362848554</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.198515784558714</v>
@@ -9898,7 +9790,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.438344618332449</v>
+        <v>1.400508382143855</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.07549009222268</v>
@@ -9987,7 +9879,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.461074109606794</v>
+        <v>1.415336755270034</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.179660282461948</v>
@@ -10076,7 +9968,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.501407530188112</v>
+        <v>1.44832280579345</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.362570281899711</v>
@@ -10165,7 +10057,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.520063798273041</v>
+        <v>1.462180580506109</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.524704352320441</v>
@@ -10254,7 +10146,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.472287138795825</v>
+        <v>1.432128635618177</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.21596082601342</v>
@@ -10343,7 +10235,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.485029954395704</v>
+        <v>1.4506338456051</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.318627498817404</v>
@@ -10432,7 +10324,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.494231852854872</v>
+        <v>1.462123463408541</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.289911112683135</v>
@@ -10521,7 +10413,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.525231491051778</v>
+        <v>1.490751817229458</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.46267008366195</v>
@@ -10610,7 +10502,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.491597173758384</v>
+        <v>1.461666091484545</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.503443814123367</v>
@@ -10699,7 +10591,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.527051554256792</v>
+        <v>1.508532294992529</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.41894272212533</v>
@@ -10788,7 +10680,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.521322904268759</v>
+        <v>1.507666527539123</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.414366949462768</v>
@@ -10877,7 +10769,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.511290977423262</v>
+        <v>1.505457963655011</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.371581732043804</v>
@@ -10966,7 +10858,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.508528522498143</v>
+        <v>1.502337891359092</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.447669135260545</v>
@@ -11055,7 +10947,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.516196550263056</v>
+        <v>1.511204104724629</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.332174671253571</v>
@@ -11144,7 +11036,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.482468801569119</v>
+        <v>1.482515187937982</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.390782228177783</v>
@@ -11233,7 +11125,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.486469767582402</v>
+        <v>1.482908840029942</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.503762348382216</v>
@@ -11322,7 +11214,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.483608854922462</v>
+        <v>1.481219967034201</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.515141322541394</v>
@@ -11411,7 +11303,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.446737588718177</v>
+        <v>1.452696779045888</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.434876548103559</v>
@@ -11500,7 +11392,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.451790280806073</v>
+        <v>1.459693626096981</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.601465743979161</v>
@@ -11589,7 +11481,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.468065597782614</v>
+        <v>1.473686389366536</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.480196941316361</v>
@@ -11678,7 +11570,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.463888799403104</v>
+        <v>1.46966378090325</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.504726025827966</v>
@@ -11767,7 +11659,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.459247443017971</v>
+        <v>1.466824066275095</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.626336564665323</v>
@@ -11856,7 +11748,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.449664413347219</v>
+        <v>1.449550663860093</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.570785101750611</v>
@@ -11945,7 +11837,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.433390170753358</v>
+        <v>1.44020309021503</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.575931648870843</v>
@@ -12034,7 +11926,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.397451759089625</v>
+        <v>1.399222256511554</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.530212558963713</v>
@@ -12123,7 +12015,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.39543114298528</v>
+        <v>1.393720602037734</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.522495431068281</v>
@@ -12212,7 +12104,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.405109350842942</v>
+        <v>1.410243904809945</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.588615890994779</v>
@@ -12301,7 +12193,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.406340896327098</v>
+        <v>1.410807139820536</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.686044488443406</v>
@@ -12390,7 +12282,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.398879473748006</v>
+        <v>1.410920367922616</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.659069269931847</v>
@@ -12676,7 +12568,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.494552724196645</v>
+        <v>1.480531222689723</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.863911854644524</v>
@@ -12765,7 +12657,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.47708327017617</v>
+        <v>1.458592695498859</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.621334873304193</v>
@@ -12854,7 +12746,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.475407212970697</v>
+        <v>1.460708715052453</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.590654527457063</v>
@@ -12943,7 +12835,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.488155686718557</v>
+        <v>1.473020184462243</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.81617542753066</v>
@@ -13032,7 +12924,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.495771410574898</v>
+        <v>1.477755792433766</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.699108405278847</v>
@@ -13121,7 +13013,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.515695146490241</v>
+        <v>1.49398974370247</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.373402853183603</v>
@@ -13210,7 +13102,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.52092698243732</v>
+        <v>1.501690049683691</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.610803779767443</v>
@@ -13299,7 +13191,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.525167692347089</v>
+        <v>1.507322107124171</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.800524774364503</v>
@@ -13388,7 +13280,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.526111712829871</v>
+        <v>1.508300621943332</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.76187576957872</v>
@@ -13477,7 +13369,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.522943489340306</v>
+        <v>1.507964626374783</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.68328763603609</v>
@@ -13566,7 +13458,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.528844802272428</v>
+        <v>1.515075000884937</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.788502147080274</v>
@@ -13655,7 +13547,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.544332733880975</v>
+        <v>1.527001435102697</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.872282349473412</v>
@@ -13744,7 +13636,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.53751133388941</v>
+        <v>1.525477759781304</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.876286940919166</v>
@@ -13833,7 +13725,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.586517710870673</v>
+        <v>1.571429933597773</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.672867231410605</v>
@@ -13922,7 +13814,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.60304459244086</v>
+        <v>1.585949620606867</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.968316442085354</v>
@@ -14011,7 +13903,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.605024580509311</v>
+        <v>1.588088671300401</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.651597869953717</v>
@@ -14100,7 +13992,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.63878845123525</v>
+        <v>1.619528504299335</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.642868385798198</v>
@@ -14189,7 +14081,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.642287416928641</v>
+        <v>1.622778317253207</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.210440141343748</v>
@@ -14278,7 +14170,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.643730887506409</v>
+        <v>1.627888931754836</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.869696748454715</v>
@@ -14367,7 +14259,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.636361378000697</v>
+        <v>1.624012325714688</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.009276069385416</v>
@@ -14456,7 +14348,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.637482509012837</v>
+        <v>1.626392781192432</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.984498298313615</v>
@@ -14545,7 +14437,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.655091858183081</v>
+        <v>1.63777954851</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.355640409395468</v>
@@ -14634,7 +14526,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.658452560574787</v>
+        <v>1.647604349879747</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.478582266777308</v>
@@ -14723,7 +14615,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.660914356631622</v>
+        <v>1.656391032607988</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.175868140900839</v>
@@ -14812,7 +14704,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.665284612445729</v>
+        <v>1.656554490385573</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.487846220688648</v>
@@ -14901,7 +14793,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.669460905321307</v>
+        <v>1.663703232865126</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.207685179526799</v>
@@ -14990,7 +14882,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.679036179175257</v>
+        <v>1.67322100232841</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.373912557125055</v>
@@ -15079,7 +14971,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.694105783369888</v>
+        <v>1.682798613761883</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.286059243232579</v>
@@ -15168,7 +15060,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.686240407300339</v>
+        <v>1.667335546354596</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.37418478722699</v>
@@ -15257,7 +15149,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.685756994382726</v>
+        <v>1.667181862941064</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.224328207853338</v>
@@ -15346,7 +15238,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.684167270087845</v>
+        <v>1.664482804057409</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.187926099104549</v>
@@ -15435,7 +15327,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.679088790194009</v>
+        <v>1.652982536641255</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.160800595697053</v>
@@ -15524,7 +15416,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.684133266080946</v>
+        <v>1.658138834742576</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.48633401140476</v>
@@ -15613,7 +15505,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.680146141183781</v>
+        <v>1.653125329326625</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.047541074860022</v>
@@ -15702,7 +15594,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.68171802945018</v>
+        <v>1.65092742445933</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.290402759791115</v>
@@ -15791,7 +15683,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.677779964931621</v>
+        <v>1.650227388566604</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.629236790295848</v>
@@ -15880,7 +15772,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.680767352921038</v>
+        <v>1.656789146413837</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.922523798910035</v>
@@ -15969,7 +15861,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.659395518371388</v>
+        <v>1.635667995438091</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.18814227666473</v>
@@ -16058,7 +15950,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.651433350325557</v>
+        <v>1.621880304036775</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.229950841930509</v>
@@ -16147,7 +16039,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.663478852814922</v>
+        <v>1.628950541860505</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.034637290867997</v>
@@ -16236,7 +16128,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.649840812469987</v>
+        <v>1.620117760922087</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.911303075930863</v>
@@ -16325,7 +16217,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.696977135505193</v>
+        <v>1.676342962031271</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.297621119032431</v>
@@ -16414,7 +16306,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.699982324590097</v>
+        <v>1.683868321440002</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.273270795937581</v>
@@ -16503,7 +16395,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.700566958327045</v>
+        <v>1.694180058689778</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.348975198514258</v>
@@ -16592,7 +16484,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.705081222803069</v>
+        <v>1.694981017328057</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.292730233650849</v>
@@ -16681,7 +16573,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.711693728445115</v>
+        <v>1.70071491883331</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.313705859399225</v>
@@ -16770,7 +16662,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.71741771376335</v>
+        <v>1.707303376846293</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.323733936825831</v>
@@ -16859,7 +16751,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.718518588385174</v>
+        <v>1.707430190794417</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.294416160034523</v>
@@ -16948,7 +16840,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.725524298240815</v>
+        <v>1.715427216752132</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.331733052719757</v>
@@ -17037,7 +16929,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.729387882587649</v>
+        <v>1.717097251684836</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.361554618809779</v>
@@ -17126,7 +17018,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.739646079654143</v>
+        <v>1.726859231774457</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.324083184024244</v>
@@ -17215,7 +17107,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.741655740445894</v>
+        <v>1.729609897796087</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.302968933570632</v>
@@ -17304,7 +17196,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.76572358005042</v>
+        <v>1.752568125141227</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.299878053761276</v>
@@ -17393,7 +17285,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.775422372574654</v>
+        <v>1.7662161294706</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.527964629825778</v>
@@ -17482,7 +17374,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.782640816520188</v>
+        <v>1.776719184224393</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.488772731362703</v>
@@ -17571,7 +17463,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.791278306371052</v>
+        <v>1.784212567857439</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.467787423322389</v>
@@ -17660,7 +17552,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.777503816240836</v>
+        <v>1.767562826284103</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.834004399277606</v>
@@ -17749,7 +17641,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.768928524616348</v>
+        <v>1.761975253110622</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.839126327855118</v>
@@ -17838,7 +17730,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.767407657141915</v>
+        <v>1.759899942549204</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.963094572423098</v>
@@ -17927,7 +17819,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.76628495320725</v>
+        <v>1.767024281030129</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.804830239776059</v>
@@ -18016,7 +17908,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.768850973041537</v>
+        <v>1.773747657810479</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.727783414223428</v>
@@ -18302,7 +18194,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.604775649684916</v>
+        <v>1.530061573954388</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.529109448650913</v>
@@ -18391,7 +18283,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.589625883567034</v>
+        <v>1.523610148672688</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.266829108435045</v>
@@ -18480,7 +18372,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.588844060892548</v>
+        <v>1.520471451708564</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.347017942302707</v>
@@ -18569,7 +18461,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.58065509457998</v>
+        <v>1.512606254205377</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.364844962364171</v>
@@ -18658,7 +18550,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.586959363612458</v>
+        <v>1.515429798154639</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.343721715438493</v>
@@ -18747,7 +18639,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.573209476843962</v>
+        <v>1.505280638719295</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.357357762854054</v>
@@ -18836,7 +18728,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.5586630489597</v>
+        <v>1.491764324700261</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.163624285471322</v>
@@ -18925,7 +18817,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.556938034204408</v>
+        <v>1.487202104228084</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.119485273682228</v>
@@ -19014,7 +18906,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.554333826296943</v>
+        <v>1.489823451759778</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.982852185523549</v>
@@ -19103,7 +18995,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.560374702506897</v>
+        <v>1.493315189233313</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.016156061740092</v>
@@ -19192,7 +19084,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.574321225333079</v>
+        <v>1.504719526845476</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.282769994628906</v>
@@ -19281,7 +19173,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.569057266757958</v>
+        <v>1.499746646049627</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.326225841750642</v>
@@ -19370,7 +19262,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.562750502751915</v>
+        <v>1.500864874349237</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.894775709423864</v>
@@ -19459,7 +19351,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.569861112181005</v>
+        <v>1.50875489446204</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.163157499350374</v>
@@ -19548,7 +19440,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565883975998043</v>
+        <v>1.504526764365664</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.179859115283862</v>
@@ -19637,7 +19529,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.553713969234522</v>
+        <v>1.499809454614986</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.198445397008412</v>
@@ -19726,7 +19618,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.565323605996242</v>
+        <v>1.501301417531151</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.296820729072467</v>
@@ -19815,7 +19707,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.548541122162933</v>
+        <v>1.491335579080484</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.885879343249495</v>
@@ -19904,7 +19796,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.554048332730397</v>
+        <v>1.492373434458425</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.162839955121251</v>
@@ -19993,7 +19885,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.545739344214282</v>
+        <v>1.48508636448185</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.220489056021311</v>
@@ -20082,7 +19974,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.551363795595661</v>
+        <v>1.485736306159566</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.304670883440708</v>
@@ -20171,7 +20063,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.563138565190321</v>
+        <v>1.494320893754809</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.63141085411185</v>
@@ -20260,7 +20152,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.558009444715801</v>
+        <v>1.488184611849274</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.212400939343123</v>
@@ -20349,7 +20241,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.560456476088935</v>
+        <v>1.488186521770784</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.179972878447819</v>
@@ -20438,7 +20330,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.559354158778693</v>
+        <v>1.490746739134691</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.356868440435542</v>
@@ -20527,7 +20419,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.552506166186695</v>
+        <v>1.488318666821193</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.253396075845012</v>
@@ -20616,7 +20508,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.555279834637855</v>
+        <v>1.486981668408022</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.071775947538516</v>
@@ -20705,7 +20597,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.555654108785728</v>
+        <v>1.481867498360723</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.41550581829336</v>
@@ -20794,7 +20686,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.55731606487184</v>
+        <v>1.480447373218888</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.755746647837753</v>
@@ -20883,7 +20775,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.554186744222748</v>
+        <v>1.475306359464494</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.968944245155182</v>
@@ -20972,7 +20864,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.549284723683549</v>
+        <v>1.472397868415785</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.296746018460632</v>
@@ -21061,7 +20953,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.550379687254775</v>
+        <v>1.475591691861246</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.131979546001885</v>
@@ -21150,7 +21042,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.563862589721005</v>
+        <v>1.479039237260327</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.281192641753044</v>
@@ -21239,7 +21131,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.557394338459222</v>
+        <v>1.471790162167649</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.240074495008549</v>
@@ -21328,7 +21220,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.566452048709722</v>
+        <v>1.476041380429144</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.926854669726367</v>
@@ -21417,7 +21309,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.567652018085608</v>
+        <v>1.475971807910848</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.036862250990414</v>
@@ -21506,7 +21398,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.574456163674925</v>
+        <v>1.476876522932768</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.033380548662886</v>
@@ -21595,7 +21487,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.56782939956741</v>
+        <v>1.475405406926999</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.960214413401437</v>
@@ -21684,7 +21576,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.57201617486005</v>
+        <v>1.483592609271057</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.069028605460995</v>
@@ -21773,7 +21665,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.584101736138588</v>
+        <v>1.489538277773584</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.775540792448398</v>
@@ -21862,7 +21754,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.572782504031861</v>
+        <v>1.483560037786628</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.819978920380763</v>
@@ -21951,7 +21843,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.646947062501756</v>
+        <v>1.587239942566612</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.244386377571327</v>
@@ -22040,7 +21932,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.647926938140427</v>
+        <v>1.596384974978916</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.31395233820179</v>
@@ -22129,7 +22021,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.661081065792544</v>
+        <v>1.606948458316437</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.263452587957938</v>
@@ -22218,7 +22110,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.660298992383902</v>
+        <v>1.609198167041975</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.33466110501792</v>
@@ -22307,7 +22199,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.663665423854787</v>
+        <v>1.611231350211147</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.272382064353393</v>
@@ -22396,7 +22288,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.652672346069039</v>
+        <v>1.602757853101435</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.279197607090704</v>
@@ -22485,7 +22377,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.652556749223707</v>
+        <v>1.600624188682462</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.28415885544492</v>
@@ -22574,7 +22466,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.651528343362808</v>
+        <v>1.608577259926906</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.336610496308781</v>
@@ -22663,7 +22555,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.649726439812972</v>
+        <v>1.611083035002693</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.298699229146989</v>
@@ -22752,7 +22644,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.657264689177797</v>
+        <v>1.617400567710241</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.444451560690367</v>
@@ -22841,7 +22733,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.65420334139678</v>
+        <v>1.623846244508552</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.300757984875799</v>
@@ -22930,7 +22822,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.658005368641314</v>
+        <v>1.633798238501979</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.342182368378323</v>
@@ -23019,7 +22911,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.649391238652296</v>
+        <v>1.630310850459042</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.312358471682054</v>
@@ -23108,7 +23000,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.643455735831878</v>
+        <v>1.632751484685046</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.341762159472153</v>
@@ -23197,7 +23089,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.654961853527469</v>
+        <v>1.642836768814245</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.453656130897798</v>
@@ -23286,7 +23178,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.587044549590081</v>
+        <v>1.566740515103025</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.046527603503833</v>
@@ -23375,7 +23267,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.592058208436605</v>
+        <v>1.570330211178405</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.141322052046037</v>
@@ -23464,7 +23356,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594840331475944</v>
+        <v>1.57117343606819</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.917639409266309</v>
@@ -23553,7 +23445,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.603855902704571</v>
+        <v>1.580335898057621</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.142386040211607</v>
@@ -23642,7 +23534,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.609796743319852</v>
+        <v>1.591213629699207</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.164367856070707</v>
@@ -23928,7 +23820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.34902008550914</v>
+        <v>1.331630908785267</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.307274377517831</v>
@@ -24017,7 +23909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.355374125333704</v>
+        <v>1.334042071626211</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.986454647190482</v>
@@ -24106,7 +23998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.367752308880298</v>
+        <v>1.346933363832979</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.241294611925109</v>
@@ -24195,7 +24087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.367673592680987</v>
+        <v>1.349966148256651</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.275828715358295</v>
@@ -24284,7 +24176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.372375785209876</v>
+        <v>1.352938315275896</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.313030144171468</v>
@@ -24373,7 +24265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.373732414833713</v>
+        <v>1.346466138802499</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.260523687905619</v>
@@ -24462,7 +24354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.384633903480217</v>
+        <v>1.358950953390172</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.297072876608393</v>
@@ -24551,7 +24443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.401448540125396</v>
+        <v>1.367626781421851</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.460145848126489</v>
@@ -24640,7 +24532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.391951089052981</v>
+        <v>1.358111647160544</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.192150848322766</v>
@@ -24729,7 +24621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.420270701936875</v>
+        <v>1.383136455589367</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.279056079692261</v>
@@ -24818,7 +24710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.401838228781918</v>
+        <v>1.368175279581356</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.220316214597783</v>
@@ -24907,7 +24799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.424742140053481</v>
+        <v>1.387080317502974</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.482088890846465</v>
@@ -24996,7 +24888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.425167986486229</v>
+        <v>1.397455411897539</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.402679947245272</v>
@@ -25085,7 +24977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.458217272556408</v>
+        <v>1.427235223527229</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.701607989048488</v>
@@ -25174,7 +25066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.46614242099688</v>
+        <v>1.437560940769045</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.697295410527624</v>
@@ -25263,7 +25155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.455139229918573</v>
+        <v>1.425164546366232</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.793318067137038</v>
@@ -25352,7 +25244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.466844720489144</v>
+        <v>1.442909578328343</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.706360890251943</v>
@@ -25441,7 +25333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.469089133671694</v>
+        <v>1.445880074008036</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.880497570990124</v>
@@ -25530,7 +25422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.473522238232406</v>
+        <v>1.445926142894714</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.811287030984547</v>
@@ -25619,7 +25511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.452717255722422</v>
+        <v>1.425614710372492</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.330263082801936</v>
@@ -25708,7 +25600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.462565566641474</v>
+        <v>1.433841599099595</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.455833819912557</v>
@@ -25797,7 +25689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.480909551823028</v>
+        <v>1.44479243552873</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.438101850644566</v>
@@ -25886,7 +25778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.488630211596369</v>
+        <v>1.450036036977659</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.481619012579814</v>
@@ -25975,7 +25867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.504972148024725</v>
+        <v>1.458092034149584</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.468833604410879</v>
@@ -26064,7 +25956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.509196154667374</v>
+        <v>1.454003206104518</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.637272056300911</v>
@@ -26153,7 +26045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.529470544406712</v>
+        <v>1.469061184561176</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.558271991874414</v>
@@ -26242,7 +26134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.517228898856934</v>
+        <v>1.458614075761808</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.580877584980273</v>
@@ -26331,7 +26223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.516146704938716</v>
+        <v>1.453987962562104</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.445772220697223</v>
@@ -26420,7 +26312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.499129840911255</v>
+        <v>1.439113643712821</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.332443729267207</v>
@@ -26509,7 +26401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.487028529743081</v>
+        <v>1.420875564795554</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.503996312667734</v>
@@ -26598,7 +26490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.486102710184029</v>
+        <v>1.421464408296234</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.340027295348553</v>
@@ -26687,7 +26579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.487520612810981</v>
+        <v>1.416008433263242</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.388629335551015</v>
@@ -26776,7 +26668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.472936991905597</v>
+        <v>1.406432877249461</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.446928955073692</v>
@@ -26865,7 +26757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.456714470647675</v>
+        <v>1.396734264491534</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.392467280076942</v>
@@ -26954,7 +26846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.485398167062251</v>
+        <v>1.408424140272808</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.735044449222729</v>
@@ -27043,7 +26935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.478674409926846</v>
+        <v>1.403594983551312</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.566028593696271</v>
@@ -27132,7 +27024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.460487589039374</v>
+        <v>1.392009740895845</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.457771770508185</v>
@@ -27221,7 +27113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.474618585350051</v>
+        <v>1.403549918712794</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.620462659926159</v>
@@ -27310,7 +27202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.468317203966885</v>
+        <v>1.406146134346539</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.683511262366836</v>
@@ -27399,7 +27291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.461488037023974</v>
+        <v>1.401152802848957</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.468283563436716</v>
@@ -27488,7 +27380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.453762028691922</v>
+        <v>1.395921678474865</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.517165133983</v>
@@ -27577,7 +27469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.513331463959624</v>
+        <v>1.462681049689403</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.735880365697434</v>
@@ -27666,7 +27558,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.519797569374355</v>
+        <v>1.467595331169817</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.637865995671063</v>
@@ -27755,7 +27647,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.519941864964324</v>
+        <v>1.470396209052371</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.568966451676553</v>
@@ -27844,7 +27736,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.523850010459862</v>
+        <v>1.477962442776744</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.374528942679014</v>
@@ -27933,7 +27825,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.539330701441807</v>
+        <v>1.492491391081516</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.683741181202882</v>
@@ -28022,7 +27914,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.516974258586463</v>
+        <v>1.473834472165765</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.631068190804553</v>
@@ -28111,7 +28003,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.517302883181196</v>
+        <v>1.474816387166307</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.634233009952075</v>
@@ -28200,7 +28092,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.52046368544346</v>
+        <v>1.47922585270309</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.537802262037658</v>
@@ -28289,7 +28181,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.51610758309471</v>
+        <v>1.480651142158711</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.516753246203303</v>
@@ -28378,7 +28270,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.5008885344254</v>
+        <v>1.475017233457802</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.450710879844526</v>
@@ -28467,7 +28359,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.515281551763591</v>
+        <v>1.493598358844562</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.545229899720568</v>
@@ -28556,7 +28448,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.498671966921554</v>
+        <v>1.48787841528203</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.534990680845906</v>
@@ -28645,7 +28537,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.503797399330537</v>
+        <v>1.494844529900178</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.482454821344305</v>
@@ -28734,7 +28626,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.513458404389239</v>
+        <v>1.508563428584073</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.498250825544496</v>
@@ -28823,7 +28715,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.524590142382029</v>
+        <v>1.519238936521193</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.610081875180302</v>
@@ -28912,7 +28804,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.480354798965341</v>
+        <v>1.472920625067379</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.252197562513961</v>
@@ -29001,7 +28893,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.465676302766568</v>
+        <v>1.464056760742722</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.442364900594026</v>
@@ -29090,7 +28982,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.474952485584006</v>
+        <v>1.47267831635577</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.606127110740797</v>
@@ -29179,7 +29071,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.4742183313663</v>
+        <v>1.477651370323675</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.475804528063199</v>
@@ -29268,7 +29160,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.480261634928252</v>
+        <v>1.485143395775196</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.496792665383572</v>
@@ -29554,7 +29446,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.327949832717642</v>
+        <v>1.329566897473816</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.479787160939714</v>
@@ -29643,7 +29535,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.333474710817041</v>
+        <v>1.331092518338494</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.330872784144184</v>
@@ -29732,7 +29624,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.323158999607061</v>
+        <v>1.322270184530202</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.310614494024656</v>
@@ -29821,7 +29713,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.335024632065343</v>
+        <v>1.334336059334397</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.30726214735526</v>
@@ -29910,7 +29802,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.340895486436597</v>
+        <v>1.337902895229494</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.390136844201065</v>
@@ -29999,7 +29891,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.336647828465102</v>
+        <v>1.334468023699239</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.096423421082715</v>
@@ -30088,7 +29980,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.365222217537253</v>
+        <v>1.361034674831764</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.582755455232031</v>
@@ -30177,7 +30069,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.374794921698823</v>
+        <v>1.372731307314249</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.512130445838803</v>
@@ -30266,7 +30158,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.394070616929035</v>
+        <v>1.390971656245419</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.578363218784368</v>
@@ -30355,7 +30247,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.398359011943359</v>
+        <v>1.399578050300711</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.581340610319927</v>
@@ -30444,7 +30336,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.422615238148053</v>
+        <v>1.421964121508017</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.481363884086498</v>
@@ -30533,7 +30425,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.430066738196326</v>
+        <v>1.42804611319732</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.607616853225361</v>
@@ -30622,7 +30514,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.421469715108545</v>
+        <v>1.422212748834158</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.318390778871908</v>
@@ -30711,7 +30603,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.432146998046024</v>
+        <v>1.431494355641917</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.404659579627748</v>
@@ -30800,7 +30692,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.441604648870016</v>
+        <v>1.445353968144954</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.701684169972367</v>
@@ -30889,7 +30781,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.418208246443288</v>
+        <v>1.424891505367989</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.477521733819804</v>
@@ -30978,7 +30870,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.428658620234035</v>
+        <v>1.436554948810751</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.547902132665669</v>
@@ -31067,7 +30959,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.447796542424552</v>
+        <v>1.445448963366043</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.33905394578205</v>
@@ -31156,7 +31048,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.423971773243613</v>
+        <v>1.4264380197313</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.433416273315482</v>
@@ -31245,7 +31137,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.402553602353114</v>
+        <v>1.408914102001851</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.374328692230801</v>
@@ -31334,7 +31226,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.410896738217934</v>
+        <v>1.416646396451913</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.435924284597944</v>
@@ -31423,7 +31315,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.400497777849695</v>
+        <v>1.403634547958479</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.434800159672595</v>
@@ -31512,7 +31404,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.383055317113764</v>
+        <v>1.387740047164542</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.42149061321088</v>
@@ -31601,7 +31493,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.376422051413001</v>
+        <v>1.382540204269762</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.40836606888907</v>
@@ -31690,7 +31582,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.37682059391991</v>
+        <v>1.379512547949736</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.493109902600236</v>
@@ -31779,7 +31671,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.368288111499094</v>
+        <v>1.370416273662235</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.462687371843215</v>
@@ -31868,7 +31760,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.351769885792878</v>
+        <v>1.35396095491089</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.477653455523987</v>
@@ -31957,7 +31849,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.353581755283736</v>
+        <v>1.357272556526103</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.51528099303871</v>
@@ -32046,7 +31938,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.349191803579079</v>
+        <v>1.350487810149009</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.301629940963238</v>
@@ -32135,7 +32027,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.335321782603545</v>
+        <v>1.33192449354792</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.461688483623975</v>
@@ -32224,7 +32116,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.340904936555883</v>
+        <v>1.333574451739999</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.311834471622015</v>
@@ -32313,7 +32205,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.329792244902635</v>
+        <v>1.322462345275879</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.430541606911438</v>
@@ -32402,7 +32294,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.334338265064241</v>
+        <v>1.328987254804582</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.348503699580085</v>
@@ -32491,7 +32383,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.339410542936414</v>
+        <v>1.331502753889487</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.375757998764388</v>
@@ -32580,7 +32472,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.354778988453526</v>
+        <v>1.344010192175386</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.311818583243138</v>
@@ -32669,7 +32561,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.348954437067529</v>
+        <v>1.332647486364842</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.423611228955476</v>
@@ -32758,7 +32650,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.337934079978964</v>
+        <v>1.329598688286671</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.117216482863137</v>
@@ -32847,7 +32739,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.353565020307245</v>
+        <v>1.341041409323146</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.229866914980297</v>
@@ -32936,7 +32828,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.35820813908376</v>
+        <v>1.347846158889647</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.397193735144404</v>
@@ -33025,7 +32917,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.359439737091977</v>
+        <v>1.349124963516875</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.52109376883925</v>
@@ -33114,7 +33006,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.372184415933437</v>
+        <v>1.36388971457793</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.364404805871977</v>
@@ -33203,7 +33095,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.36327965762148</v>
+        <v>1.355060080302607</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.929506413687958</v>
@@ -33292,7 +33184,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.367652743400424</v>
+        <v>1.362689759317551</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.926561788802455</v>
@@ -33381,7 +33273,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.359500058234062</v>
+        <v>1.354260120744984</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.033472600849661</v>
@@ -33470,7 +33362,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.368969530422441</v>
+        <v>1.36556664571517</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.956431445008395</v>
@@ -33559,7 +33451,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.387939064158516</v>
+        <v>1.385861464842223</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.977505401847581</v>
@@ -33648,7 +33540,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.400087540666522</v>
+        <v>1.397162889153803</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.926530117069481</v>
@@ -33737,7 +33629,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.392243555391256</v>
+        <v>1.391330543324813</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.942456214155315</v>
@@ -33826,7 +33718,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.392586027655908</v>
+        <v>1.392288721555113</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.964922148250652</v>
@@ -33915,7 +33807,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.388519948818869</v>
+        <v>1.391742940686141</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.925124529501993</v>
@@ -34004,7 +33896,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.399759245174372</v>
+        <v>1.400134477700384</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.877626471118782</v>
@@ -34093,7 +33985,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.380430931275779</v>
+        <v>1.384849291983322</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.012108252719571</v>
@@ -34182,7 +34074,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.379870066939635</v>
+        <v>1.389673084197894</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.949719653481105</v>
@@ -34271,7 +34163,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.362906735255658</v>
+        <v>1.376776956160926</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.055446791553308</v>
@@ -34360,7 +34252,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.38315993415843</v>
+        <v>1.398522635247498</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.99476854418307</v>
@@ -34449,7 +34341,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.371754803049533</v>
+        <v>1.377622961025422</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.080502286446225</v>
@@ -34538,7 +34430,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.364543729412409</v>
+        <v>1.37337140743508</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.116525099204977</v>
@@ -34627,7 +34519,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.360597598385688</v>
+        <v>1.370752696444805</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.147510856540134</v>
@@ -34716,7 +34608,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.367398474636108</v>
+        <v>1.383622985842984</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.125519214736775</v>
@@ -34805,7 +34697,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.374879945957741</v>
+        <v>1.389020916717785</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.161112901650063</v>
@@ -34894,7 +34786,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.353834272208249</v>
+        <v>1.372783669790003</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.189407081646449</v>
@@ -35180,7 +35072,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.481044389486801</v>
+        <v>1.447471271387031</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.630145471535017</v>
@@ -35269,7 +35161,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.492623097286739</v>
+        <v>1.453356433974663</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.438929524391567</v>
@@ -35358,7 +35250,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.500981180332811</v>
+        <v>1.463357675859826</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.474054773260819</v>
@@ -35447,7 +35339,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.522465946467452</v>
+        <v>1.480205884346334</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.026867209031116</v>
@@ -35536,7 +35428,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.521060612252142</v>
+        <v>1.476405203823544</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.74711747296011</v>
@@ -35625,7 +35517,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.52570915074657</v>
+        <v>1.47741067418376</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.99011365519419</v>
@@ -35714,7 +35606,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.518064215654128</v>
+        <v>1.47534578555235</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.782436673907452</v>
@@ -35803,7 +35695,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.527695852811253</v>
+        <v>1.485608225794117</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.925009810934576</v>
@@ -35892,7 +35784,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.527916779553513</v>
+        <v>1.487183759455297</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.944394100025566</v>
@@ -35981,7 +35873,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.526482120064972</v>
+        <v>1.487838686874345</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.727164983445368</v>
@@ -36070,7 +35962,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.531743371864031</v>
+        <v>1.491145131798983</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.081289732205541</v>
@@ -36159,7 +36051,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.545854769306097</v>
+        <v>1.50505201641409</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.228117136258794</v>
@@ -36248,7 +36140,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.546608872587926</v>
+        <v>1.508139750154055</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.841896087437923</v>
@@ -36337,7 +36229,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.551553795749097</v>
+        <v>1.519201382664755</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.052277690772104</v>
@@ -36426,7 +36318,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.558558537950699</v>
+        <v>1.521091892542329</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.855764358368317</v>
@@ -36515,7 +36407,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.571070980682919</v>
+        <v>1.535593370510636</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.12187894256325</v>
@@ -36604,7 +36496,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.55062105866409</v>
+        <v>1.520647781717449</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.418790546292149</v>
@@ -36693,7 +36585,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.543334881766151</v>
+        <v>1.512234313163233</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.407682731222449</v>
@@ -36782,7 +36674,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.500386711120413</v>
+        <v>1.481031753203114</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.30496176203134</v>
@@ -36871,7 +36763,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.457173488743431</v>
+        <v>1.446534775125172</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.332269113030506</v>
@@ -36960,7 +36852,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.459017936793918</v>
+        <v>1.445748822910875</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.412229629514177</v>
@@ -37049,7 +36941,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.470500480366384</v>
+        <v>1.453621601131842</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.368257820022579</v>
@@ -37138,7 +37030,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.473748242062624</v>
+        <v>1.452025916206838</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.370588848931175</v>
@@ -37227,7 +37119,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.466334853236646</v>
+        <v>1.443647293785778</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.425594087858856</v>
@@ -37316,7 +37208,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.466699488789461</v>
+        <v>1.44177274165287</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.394738175924608</v>
@@ -37405,7 +37297,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.46913840507744</v>
+        <v>1.442249720150359</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.399384806161839</v>
@@ -37494,7 +37386,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.460670794378625</v>
+        <v>1.431059323873395</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.571384092020822</v>
@@ -37583,7 +37475,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.459161254269395</v>
+        <v>1.42738224937374</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.366759593729856</v>
@@ -37672,7 +37564,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.452058269215792</v>
+        <v>1.416026542029926</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.31618735829154</v>
@@ -37761,7 +37653,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.452985372378292</v>
+        <v>1.41685190010089</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.337174172411326</v>
@@ -37850,7 +37742,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.445185910372957</v>
+        <v>1.403908329028719</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.35900348452442</v>
@@ -37939,7 +37831,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.470673887497461</v>
+        <v>1.416326590633905</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.140403602053219</v>
@@ -38028,7 +37920,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.509871872608719</v>
+        <v>1.443018376401155</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.165429902927243</v>
@@ -38117,7 +38009,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534597783883044</v>
+        <v>1.463230975173647</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.542358131346733</v>
@@ -38206,7 +38098,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.61065627231443</v>
+        <v>1.511431176833067</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.972746534245256</v>
@@ -38295,7 +38187,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.603048240893389</v>
+        <v>1.503120760518109</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.772633575433665</v>
@@ -38384,7 +38276,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.588116136669522</v>
+        <v>1.494829203394316</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.541340133257288</v>
@@ -38473,7 +38365,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.58858935834418</v>
+        <v>1.494463725536577</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.645632347392902</v>
@@ -38562,7 +38454,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.580526777160038</v>
+        <v>1.496200980358335</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.434877519969354</v>
@@ -38651,7 +38543,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.582677557179398</v>
+        <v>1.494226486977048</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.642721311081205</v>
@@ -38740,7 +38632,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.583040551938365</v>
+        <v>1.495591495863883</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.633694659332084</v>
@@ -38829,7 +38721,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.610723191975866</v>
+        <v>1.532178648482977</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.620329145411021</v>
@@ -38918,7 +38810,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.603954396799821</v>
+        <v>1.53464521973891</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.655290878360366</v>
@@ -39007,7 +38899,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.60684748450199</v>
+        <v>1.541711421731775</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.559192178162991</v>
@@ -39096,7 +38988,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.608574746200115</v>
+        <v>1.542616623494886</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.662873792288365</v>
@@ -39185,7 +39077,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.612167569467908</v>
+        <v>1.549101241047479</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.653348845460256</v>
@@ -39274,7 +39166,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.608739560308031</v>
+        <v>1.554994410353753</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.683941050622166</v>
@@ -39363,7 +39255,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.604739773061819</v>
+        <v>1.545949093474184</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.778463932580359</v>
@@ -39452,7 +39344,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.591196956701824</v>
+        <v>1.54011789397715</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.746984936545377</v>
@@ -39541,7 +39433,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.578117029792599</v>
+        <v>1.536225356535607</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.777763649102027</v>
@@ -39630,7 +39522,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.581623086091643</v>
+        <v>1.539830287306549</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.700709557074402</v>
@@ -39719,7 +39611,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.580364271627257</v>
+        <v>1.53651161303508</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.895855794202738</v>
@@ -39808,7 +39700,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.577430192027488</v>
+        <v>1.533855256995672</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.738353230857316</v>
@@ -39897,7 +39789,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.563030228440325</v>
+        <v>1.522191877243085</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.716959977490757</v>
@@ -39986,7 +39878,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.551628740754968</v>
+        <v>1.510571976013058</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.803156737613539</v>
@@ -40075,7 +39967,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.490349736937069</v>
+        <v>1.463631693383612</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.615384887866528</v>
@@ -40164,7 +40056,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.458415675456268</v>
+        <v>1.43030579810344</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.368296231606885</v>
@@ -40253,7 +40145,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.451836783246561</v>
+        <v>1.413166065363288</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.595280078660863</v>
@@ -40342,7 +40234,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.436900552135763</v>
+        <v>1.403496780845628</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.612601116684296</v>
@@ -40431,7 +40323,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.436506774647924</v>
+        <v>1.406033040763573</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.515798963261248</v>
@@ -40520,7 +40412,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.432192572074116</v>
+        <v>1.405942442149933</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.636833098520656</v>
